--- a/materials_science_renderings/lessons/Planning Syllabus.xlsx
+++ b/materials_science_renderings/lessons/Planning Syllabus.xlsx
@@ -3350,4 +3350,237 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100140A42B38915AC4EBAF791562DC92B4E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4940a5bbaa78008d3a998d5d5aca4007">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5bbddf2c-15bd-4cee-88ee-4bb358fdb5d4" xmlns:ns3="0ffa7682-a752-4ec2-9b00-944c9a00bbe9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4658b3216de9186052934391234322c9" ns2:_="" ns3:_="">
+    <xsd:import namespace="5bbddf2c-15bd-4cee-88ee-4bb358fdb5d4"/>
+    <xsd:import namespace="0ffa7682-a752-4ec2-9b00-944c9a00bbe9"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5bbddf2c-15bd-4cee-88ee-4bb358fdb5d4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="886477d7-ad29-47e7-b319-eaa6f1949674" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0ffa7682-a752-4ec2-9b00-944c9a00bbe9" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{4f3b23a9-39ee-43d8-8bbd-bfe89c769496}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0ffa7682-a752-4ec2-9b00-944c9a00bbe9">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0ffa7682-a752-4ec2-9b00-944c9a00bbe9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5bbddf2c-15bd-4cee-88ee-4bb358fdb5d4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0188AB96-21B8-44D3-96B6-9022E3E5CDBC}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{605098FD-93D3-4CD7-B2D3-5B16198C7F75}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{292990A1-DB53-45B6-B715-CD9972EFC688}"/>
 </file>
--- a/materials_science_renderings/lessons/Planning Syllabus.xlsx
+++ b/materials_science_renderings/lessons/Planning Syllabus.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,13 +10,13 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="502" documentId="8_{42A4FF08-CD82-40AF-A6ED-26AC52AD5C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D99588C2-65C9-4B9A-8E21-8623B94B9C79}"/>
   <bookViews>
-    <workbookView xWindow="1598" yWindow="1132" windowWidth="21390" windowHeight="16155" activeTab="1" xr2:uid="{E8C7E3EB-A789-47ED-AC38-4781AECB45EE}"/>
+    <workbookView xWindow="1598" yWindow="1132" windowWidth="21390" windowHeight="16155" firstSheet="1" activeTab="1" xr2:uid="{E8C7E3EB-A789-47ED-AC38-4781AECB45EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Fall MWF Mon start" sheetId="2" r:id="rId1"/>
     <sheet name="Spr MWF Wed start" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,135 +39,93 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
   <si>
+    <t>Start date should be Mon or use other sheet</t>
+  </si>
+  <si>
+    <t>MWF 42 classes, 2100 minutes, 15 weeks</t>
+  </si>
+  <si>
+    <t>Final Exam</t>
+  </si>
+  <si>
+    <t>exam time</t>
+  </si>
+  <si>
+    <t>10:05a-12:05p</t>
+  </si>
+  <si>
+    <t>MSE 2034, Fall 2024 (SURGE 104A) 9:05a - 9:55a</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Planned</t>
-  </si>
-  <si>
-    <t>In-Class Activity</t>
+    <t>Weekly Topic Description</t>
+  </si>
+  <si>
+    <t>Callister Chapters</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
   <si>
     <t>HW</t>
   </si>
   <si>
-    <t>Lecture/Topics</t>
-  </si>
-  <si>
-    <t>Changes</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>T Th 29 classes</t>
-  </si>
-  <si>
-    <t>MWF 43 classes</t>
-  </si>
-  <si>
-    <t>2175 minutes</t>
-  </si>
-  <si>
-    <t>2150 minutes</t>
-  </si>
-  <si>
-    <t>16 weeks</t>
-  </si>
-  <si>
-    <t>Start date = Wednesday or use different sheet</t>
-  </si>
-  <si>
-    <t>Start date should be Mon or use other sheet</t>
-  </si>
-  <si>
-    <t>Final Exam</t>
-  </si>
-  <si>
-    <t>10:05a-12:05p</t>
+    <t>Intro to MSE; Intro to CES software; Bonding</t>
+  </si>
+  <si>
+    <t>Chap 1, 2</t>
   </si>
   <si>
     <t>No Classes - Labor Day</t>
   </si>
   <si>
+    <t>Structures</t>
+  </si>
+  <si>
+    <t>Chap 3</t>
+  </si>
+  <si>
+    <t>Structures; Imperfections</t>
+  </si>
+  <si>
+    <t>Chap 3, 4</t>
+  </si>
+  <si>
+    <t>Diffusion</t>
+  </si>
+  <si>
+    <t>Chap 5</t>
+  </si>
+  <si>
+    <t>Mechanical Properties</t>
+  </si>
+  <si>
+    <t>Chap 6</t>
+  </si>
+  <si>
+    <t>Review / Exam 1 (Friday)</t>
+  </si>
+  <si>
+    <t>Chap 1 - 6</t>
+  </si>
+  <si>
+    <t>Strengthening Mechanisms</t>
+  </si>
+  <si>
+    <t>Chap 7</t>
+  </si>
+  <si>
     <t>Fall Break Day</t>
   </si>
   <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>Reading Day</t>
-  </si>
-  <si>
-    <t>exam time</t>
-  </si>
-  <si>
-    <t>Weekly Topic Description</t>
-  </si>
-  <si>
-    <t>Callister Chapters</t>
-  </si>
-  <si>
-    <t>MWF 42 classes, 2100 minutes, 15 weeks</t>
-  </si>
-  <si>
-    <t>MSE 2034, Fall 2024 (SURGE 104A) 9:05a - 9:55a</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Intro to MSE; Intro to CES software; Bonding</t>
-  </si>
-  <si>
-    <t>Chap 1, 2</t>
-  </si>
-  <si>
-    <t>Structures; Imperfections</t>
-  </si>
-  <si>
-    <t>Chap 3, 4</t>
-  </si>
-  <si>
-    <t>Chap 6</t>
-  </si>
-  <si>
-    <t>Chap 7</t>
-  </si>
-  <si>
-    <t>Wrap-up / Review</t>
-  </si>
-  <si>
-    <t>Review / Exam 3 Wednesday</t>
-  </si>
-  <si>
-    <t>Strengthening Mechanisms</t>
-  </si>
-  <si>
-    <t>Chap 1 - 6</t>
-  </si>
-  <si>
-    <t>Chap 3</t>
-  </si>
-  <si>
-    <t>Structures</t>
-  </si>
-  <si>
-    <t>Diffusion</t>
-  </si>
-  <si>
-    <t>Chap 5</t>
-  </si>
-  <si>
-    <t>Mechanical Properties</t>
-  </si>
-  <si>
-    <t>Review / Exam 1 (Friday)</t>
-  </si>
-  <si>
     <t>Strengthening; Material Failure</t>
   </si>
   <si>
@@ -178,126 +138,168 @@
     <t>Chap 9 - 10</t>
   </si>
   <si>
-    <t>Metal Processing, Ceramics</t>
-  </si>
-  <si>
-    <t>Chap 11, 12</t>
-  </si>
-  <si>
-    <t>Ceramics; Polymers</t>
-  </si>
-  <si>
-    <t>Chap 13, 14</t>
-  </si>
-  <si>
-    <t>Polymers; Composites</t>
-  </si>
-  <si>
-    <t>Chap 15, 16</t>
-  </si>
-  <si>
-    <t>Chap 11 - 16</t>
-  </si>
-  <si>
-    <t>Chap 1-16</t>
+    <t>Phase Transformations; 
+Review; Exam 2 (Friday)</t>
   </si>
   <si>
     <t>Chap 10; 
 Chap 7-10</t>
   </si>
   <si>
-    <t>Phase Transformations; 
-Review; Exam 2 (Friday)</t>
+    <t>Metal Processing, Ceramics</t>
+  </si>
+  <si>
+    <t>Chap 11, 12</t>
+  </si>
+  <si>
+    <t>Ceramics; Polymers</t>
+  </si>
+  <si>
+    <t>Chap 13, 14</t>
+  </si>
+  <si>
+    <t>Polymers; Composites</t>
+  </si>
+  <si>
+    <t>Chap 15, 16</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Review / Exam 3 Wednesday</t>
+  </si>
+  <si>
+    <t>Chap 11 - 16</t>
+  </si>
+  <si>
+    <t>Wrap-up / Review</t>
+  </si>
+  <si>
+    <t>Reading Day</t>
+  </si>
+  <si>
+    <t>Chap 1-16</t>
+  </si>
+  <si>
+    <t>Start date = Wednesday or use different sheet</t>
+  </si>
+  <si>
+    <t>T Th 29 classes</t>
+  </si>
+  <si>
+    <t>2175 minutes</t>
+  </si>
+  <si>
+    <t>16 weeks</t>
+  </si>
+  <si>
+    <t>MWF 43 classes</t>
+  </si>
+  <si>
+    <t>2150 minutes</t>
+  </si>
+  <si>
+    <t>Planned</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>Lecture/Topics</t>
+  </si>
+  <si>
+    <t>In-Class Activity</t>
+  </si>
+  <si>
+    <t>01 intro</t>
+  </si>
+  <si>
+    <t>02 bonding</t>
+  </si>
+  <si>
+    <t>02 plotting</t>
+  </si>
+  <si>
+    <t>02 granta ces</t>
+  </si>
+  <si>
+    <t>03 structures</t>
+  </si>
+  <si>
+    <t>04 defects</t>
+  </si>
+  <si>
+    <t>05 diffusion</t>
+  </si>
+  <si>
+    <t>06 mech beh</t>
+  </si>
+  <si>
+    <t>granta ces advanced use</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Exam 1</t>
+  </si>
+  <si>
+    <t>07 strengthening</t>
+  </si>
+  <si>
+    <t>Spring Break</t>
+  </si>
+  <si>
+    <t>08 toughness</t>
+  </si>
+  <si>
+    <t>08 fatigue</t>
+  </si>
+  <si>
+    <t>08 example calc</t>
+  </si>
+  <si>
+    <t>08 creep</t>
+  </si>
+  <si>
+    <t>hand back exam 1</t>
+  </si>
+  <si>
+    <t>09 phase diagrams</t>
+  </si>
+  <si>
+    <t>Exam 2</t>
+  </si>
+  <si>
+    <t>10 phase transf</t>
+  </si>
+  <si>
+    <t>11 processing metals</t>
+  </si>
+  <si>
+    <t>12 ceramics properties</t>
+  </si>
+  <si>
+    <t>13 ceramics properties</t>
+  </si>
+  <si>
+    <t>13 ceramics processing</t>
+  </si>
+  <si>
+    <t>14 polymers properties</t>
+  </si>
+  <si>
+    <t>15 polymer processing</t>
+  </si>
+  <si>
+    <t>Exam 3</t>
+  </si>
+  <si>
+    <t>16 composites</t>
   </si>
   <si>
     <t xml:space="preserve">Final Exam </t>
-  </si>
-  <si>
-    <t>Spring Break</t>
-  </si>
-  <si>
-    <t>09 phase diagrams</t>
-  </si>
-  <si>
-    <t>Exam 2</t>
-  </si>
-  <si>
-    <t>08 fatigue</t>
-  </si>
-  <si>
-    <t>08 toughness</t>
-  </si>
-  <si>
-    <t>hand back exam 1</t>
-  </si>
-  <si>
-    <t>07 strengthening</t>
-  </si>
-  <si>
-    <t>06 mech beh</t>
-  </si>
-  <si>
-    <t>Review</t>
-  </si>
-  <si>
-    <t>Exam 1</t>
-  </si>
-  <si>
-    <t>05 diffusion</t>
-  </si>
-  <si>
-    <t>04 defects</t>
-  </si>
-  <si>
-    <t>03 structures</t>
-  </si>
-  <si>
-    <t>01 intro</t>
-  </si>
-  <si>
-    <t>02 bonding</t>
-  </si>
-  <si>
-    <t>02 plotting</t>
-  </si>
-  <si>
-    <t>02 granta ces</t>
-  </si>
-  <si>
-    <t>08 creep</t>
-  </si>
-  <si>
-    <t>08 example calc</t>
-  </si>
-  <si>
-    <t>granta ces advanced use</t>
-  </si>
-  <si>
-    <t>10 phase transf</t>
-  </si>
-  <si>
-    <t>11 processing metals</t>
-  </si>
-  <si>
-    <t>12 ceramics properties</t>
-  </si>
-  <si>
-    <t>13 ceramics processing</t>
-  </si>
-  <si>
-    <t>14 polymers properties</t>
-  </si>
-  <si>
-    <t>15 polymer processing</t>
-  </si>
-  <si>
-    <t>13 ceramics properties</t>
-  </si>
-  <si>
-    <t>16 composites</t>
-  </si>
-  <si>
-    <t>Exam 3</t>
   </si>
 </sst>
 </file>
@@ -308,7 +310,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\ ddd;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -936,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -954,9 +956,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -994,17 +993,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1021,9 +1011,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,9 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1048,28 +1032,85 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1077,19 +1118,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1098,24 +1127,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,140 +1136,134 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,9 +1283,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1318,7 +1323,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1424,7 +1429,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1566,7 +1571,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1580,7 +1585,7 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="1.08203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.83203125" style="4" customWidth="1"/>
@@ -1589,839 +1594,847 @@
     <col min="5" max="5" width="37.58203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.4140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.58203125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="56">
+    <row r="1" spans="2:11" ht="15.6" customHeight="1">
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="84">
         <v>45530</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="56"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="56"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B4" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="7">
+      <c r="E1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="2:11" ht="15.6" customHeight="1">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="84"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.6" customHeight="1">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="84"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="85">
         <v>45642</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+    <row r="5" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B5" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="65"/>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-    </row>
-    <row r="6" spans="2:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="58"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+    </row>
+    <row r="6" spans="2:11" ht="32.1" customHeight="1" thickBot="1">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="67"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="2:11" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="14" t="s">
+    <row r="7" spans="2:11" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="52">
+      <c r="C7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B8" s="49">
         <v>1</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>1</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="86">
         <f>D1</f>
         <v>45530</v>
       </c>
-      <c r="E8" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="53"/>
-      <c r="C9" s="18">
+      <c r="E8" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B9" s="51"/>
+      <c r="C9" s="17">
         <v>2</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="87">
         <f>D8+2</f>
         <v>45532</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="59"/>
-    </row>
-    <row r="10" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="54"/>
-      <c r="C10" s="23">
+      <c r="E9" s="69"/>
+      <c r="F9" s="52"/>
+    </row>
+    <row r="10" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B10" s="53"/>
+      <c r="C10" s="20">
         <v>3</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="88">
         <f>D9+2</f>
         <v>45534</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="59"/>
-    </row>
-    <row r="11" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="73">
+      <c r="E10" s="69"/>
+      <c r="F10" s="52"/>
+    </row>
+    <row r="11" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B11" s="89">
         <f>D8+7</f>
         <v>45537</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-    </row>
-    <row r="12" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="52">
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B12" s="49">
         <v>2</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>4</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="86">
         <f t="shared" ref="D12:D54" si="0">D9+7</f>
         <v>45539</v>
       </c>
-      <c r="E12" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="53"/>
-      <c r="C13" s="18">
+      <c r="E12" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B13" s="51"/>
+      <c r="C13" s="17">
         <v>5</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="87">
         <f t="shared" si="0"/>
         <v>45541</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="59"/>
-    </row>
-    <row r="14" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="62">
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+    </row>
+    <row r="14" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B14" s="56">
         <v>3</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>6</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="86">
         <f>B11+7</f>
         <v>45544</v>
       </c>
-      <c r="E14" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="63"/>
-      <c r="C15" s="18">
+      <c r="E14" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B15" s="57"/>
+      <c r="C15" s="17">
         <v>7</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="87">
         <f t="shared" si="0"/>
         <v>45546</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="71"/>
-    </row>
-    <row r="16" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="64"/>
-      <c r="C16" s="23">
+      <c r="E15" s="57"/>
+      <c r="F15" s="61"/>
+    </row>
+    <row r="16" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B16" s="58"/>
+      <c r="C16" s="20">
         <v>8</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="88">
         <f t="shared" si="0"/>
         <v>45548</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="72"/>
-    </row>
-    <row r="17" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="52">
+      <c r="E16" s="59"/>
+      <c r="F16" s="62"/>
+    </row>
+    <row r="17" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B17" s="49">
         <v>4</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>9</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="86">
         <f t="shared" si="0"/>
         <v>45551</v>
       </c>
-      <c r="E17" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="53"/>
-      <c r="C18" s="18">
+      <c r="E17" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B18" s="51"/>
+      <c r="C18" s="17">
         <v>10</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="87">
         <f t="shared" si="0"/>
         <v>45553</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="59"/>
-    </row>
-    <row r="19" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="54"/>
-      <c r="C19" s="23">
+      <c r="E18" s="51"/>
+      <c r="F18" s="52"/>
+    </row>
+    <row r="19" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B19" s="53"/>
+      <c r="C19" s="20">
         <v>11</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="88">
         <f t="shared" si="0"/>
         <v>45555</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="59"/>
-    </row>
-    <row r="20" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="52">
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B20" s="49">
         <v>5</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>12</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="86">
         <f t="shared" si="0"/>
         <v>45558</v>
       </c>
-      <c r="E20" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="53"/>
-      <c r="C21" s="18">
+      <c r="E20" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B21" s="51"/>
+      <c r="C21" s="17">
         <v>13</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="87">
         <f t="shared" si="0"/>
         <v>45560</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="59"/>
-    </row>
-    <row r="22" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="54"/>
-      <c r="C22" s="23">
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+    </row>
+    <row r="22" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B22" s="53"/>
+      <c r="C22" s="20">
         <v>14</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="88">
         <f t="shared" si="0"/>
         <v>45562</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="59"/>
-    </row>
-    <row r="23" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="52">
+      <c r="E22" s="51"/>
+      <c r="F22" s="52"/>
+    </row>
+    <row r="23" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B23" s="49">
         <v>6</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>15</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="86">
         <f t="shared" si="0"/>
         <v>45565</v>
       </c>
-      <c r="E23" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="59" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="53"/>
-      <c r="C24" s="18">
+      <c r="E23" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B24" s="51"/>
+      <c r="C24" s="17">
         <v>16</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="87">
         <f t="shared" si="0"/>
         <v>45567</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="59"/>
-    </row>
-    <row r="25" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="54"/>
-      <c r="C25" s="23">
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B25" s="53"/>
+      <c r="C25" s="20">
         <v>17</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="88">
         <f t="shared" si="0"/>
         <v>45569</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="59"/>
-    </row>
-    <row r="26" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="52">
+      <c r="E25" s="51"/>
+      <c r="F25" s="52"/>
+    </row>
+    <row r="26" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B26" s="49">
         <v>7</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>18</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="86">
         <f t="shared" si="0"/>
         <v>45572</v>
       </c>
-      <c r="E26" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="53"/>
-      <c r="C27" s="18">
+      <c r="E26" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B27" s="51"/>
+      <c r="C27" s="17">
         <v>19</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="87">
         <f t="shared" si="0"/>
         <v>45574</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="59"/>
-    </row>
-    <row r="28" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="73">
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="28" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B28" s="89">
         <f>D25+7</f>
         <v>45576</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="52">
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B29" s="49">
         <v>8</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="19">
         <v>20</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="86">
         <f t="shared" si="0"/>
         <v>45579</v>
       </c>
-      <c r="E29" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="59" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="53"/>
-      <c r="C30" s="18">
+      <c r="E29" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B30" s="51"/>
+      <c r="C30" s="17">
         <v>21</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="87">
         <f t="shared" si="0"/>
         <v>45581</v>
       </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="59"/>
-    </row>
-    <row r="31" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="54"/>
-      <c r="C31" s="23">
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
+    </row>
+    <row r="31" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B31" s="53"/>
+      <c r="C31" s="20">
         <v>22</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="88">
         <f>B28+7</f>
         <v>45583</v>
       </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="59"/>
-    </row>
-    <row r="32" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="52">
+      <c r="E31" s="51"/>
+      <c r="F31" s="52"/>
+    </row>
+    <row r="32" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B32" s="49">
         <v>9</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="19">
         <v>23</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="86">
         <f t="shared" si="0"/>
         <v>45586</v>
       </c>
-      <c r="E32" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="53"/>
-      <c r="C33" s="18">
+      <c r="E32" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B33" s="51"/>
+      <c r="C33" s="17">
         <v>24</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="87">
         <f t="shared" si="0"/>
         <v>45588</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="59"/>
-    </row>
-    <row r="34" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="54"/>
-      <c r="C34" s="23">
+      <c r="E33" s="51"/>
+      <c r="F33" s="52"/>
+    </row>
+    <row r="34" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B34" s="53"/>
+      <c r="C34" s="20">
         <v>25</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="88">
         <f t="shared" si="0"/>
         <v>45590</v>
       </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="59"/>
-    </row>
-    <row r="35" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="52">
+      <c r="E34" s="51"/>
+      <c r="F34" s="52"/>
+    </row>
+    <row r="35" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B35" s="49">
         <v>10</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="19">
         <v>26</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="86">
         <f t="shared" si="0"/>
         <v>45593</v>
       </c>
-      <c r="E35" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="53"/>
-      <c r="C36" s="18">
+      <c r="E35" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B36" s="51"/>
+      <c r="C36" s="17">
         <v>27</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="87">
         <f t="shared" si="0"/>
         <v>45595</v>
       </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="59"/>
-    </row>
-    <row r="37" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="54"/>
-      <c r="C37" s="23">
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B37" s="53"/>
+      <c r="C37" s="20">
         <v>28</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="88">
         <f t="shared" si="0"/>
         <v>45597</v>
       </c>
-      <c r="E37" s="53"/>
-      <c r="F37" s="59"/>
-    </row>
-    <row r="38" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="52">
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B38" s="49">
         <v>11</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="19">
         <v>29</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="86">
         <f t="shared" si="0"/>
         <v>45600</v>
       </c>
-      <c r="E38" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="53"/>
-      <c r="C39" s="18">
+      <c r="E38" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B39" s="51"/>
+      <c r="C39" s="17">
         <v>30</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="87">
         <f t="shared" si="0"/>
         <v>45602</v>
       </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="59"/>
-    </row>
-    <row r="40" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="54"/>
-      <c r="C40" s="23">
+      <c r="E39" s="51"/>
+      <c r="F39" s="52"/>
+    </row>
+    <row r="40" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B40" s="53"/>
+      <c r="C40" s="20">
         <v>31</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="88">
         <f t="shared" si="0"/>
         <v>45604</v>
       </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="59"/>
-    </row>
-    <row r="41" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="52">
+      <c r="E40" s="51"/>
+      <c r="F40" s="52"/>
+    </row>
+    <row r="41" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B41" s="49">
         <v>12</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="19">
         <v>32</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="86">
         <f t="shared" si="0"/>
         <v>45607</v>
       </c>
-      <c r="E41" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="53"/>
-      <c r="C42" s="18">
+      <c r="E41" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B42" s="51"/>
+      <c r="C42" s="17">
         <v>33</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="87">
         <f t="shared" si="0"/>
         <v>45609</v>
       </c>
-      <c r="E42" s="53"/>
-      <c r="F42" s="59"/>
-    </row>
-    <row r="43" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="54"/>
-      <c r="C43" s="23">
+      <c r="E42" s="51"/>
+      <c r="F42" s="52"/>
+    </row>
+    <row r="43" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B43" s="53"/>
+      <c r="C43" s="20">
         <v>34</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="88">
         <f t="shared" si="0"/>
         <v>45611</v>
       </c>
-      <c r="E43" s="53"/>
-      <c r="F43" s="59"/>
-    </row>
-    <row r="44" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="52">
+      <c r="E43" s="51"/>
+      <c r="F43" s="52"/>
+    </row>
+    <row r="44" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B44" s="49">
         <v>13</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="19">
         <v>35</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44" s="86">
         <f t="shared" si="0"/>
         <v>45614</v>
       </c>
-      <c r="E44" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" s="59" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="53"/>
-      <c r="C45" s="18">
+      <c r="E44" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B45" s="51"/>
+      <c r="C45" s="17">
         <v>36</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="87">
         <f t="shared" si="0"/>
         <v>45616</v>
       </c>
-      <c r="E45" s="53"/>
-      <c r="F45" s="59"/>
-    </row>
-    <row r="46" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="54"/>
-      <c r="C46" s="23">
+      <c r="E45" s="51"/>
+      <c r="F45" s="52"/>
+    </row>
+    <row r="46" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B46" s="53"/>
+      <c r="C46" s="20">
         <v>37</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="88">
         <f t="shared" si="0"/>
         <v>45618</v>
       </c>
-      <c r="E46" s="53"/>
-      <c r="F46" s="59"/>
-    </row>
-    <row r="47" spans="2:11" ht="15.3" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="76">
+      <c r="E46" s="51"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="2:11" ht="15.4" customHeight="1" thickTop="1">
+      <c r="B47" s="92">
         <f>D44+7</f>
         <v>45621</v>
       </c>
-      <c r="C47" s="77"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="85"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-    </row>
-    <row r="48" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B48" s="97">
+      <c r="C47" s="93"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="43"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="2:11" ht="13.5" customHeight="1">
+      <c r="B48" s="95">
         <f>D45+7</f>
         <v>45623</v>
       </c>
-      <c r="C48" s="98"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-    </row>
-    <row r="49" spans="2:11" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="79">
+      <c r="C48" s="96"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="2:11" ht="14.45" customHeight="1" thickBot="1">
+      <c r="B49" s="98">
         <f>D46+7</f>
         <v>45625</v>
       </c>
-      <c r="C49" s="80"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-    </row>
-    <row r="50" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="52">
+      <c r="C49" s="99"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+    </row>
+    <row r="50" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B50" s="49">
         <v>14</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="19">
         <v>38</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="86">
         <f>B47+7</f>
         <v>45628</v>
       </c>
-      <c r="E50" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="53"/>
-      <c r="C51" s="18">
+      <c r="E50" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B51" s="51"/>
+      <c r="C51" s="17">
         <v>39</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="87">
         <f>B48+7</f>
         <v>45630</v>
       </c>
-      <c r="E51" s="53"/>
-      <c r="F51" s="59"/>
-    </row>
-    <row r="52" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="54"/>
-      <c r="C52" s="23">
+      <c r="E51" s="51"/>
+      <c r="F51" s="52"/>
+    </row>
+    <row r="52" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B52" s="53"/>
+      <c r="C52" s="20">
         <v>40</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="88">
         <f>B49+7</f>
         <v>45632</v>
       </c>
-      <c r="E52" s="53"/>
-      <c r="F52" s="59"/>
-    </row>
-    <row r="53" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="52">
+      <c r="E52" s="51"/>
+      <c r="F52" s="52"/>
+    </row>
+    <row r="53" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B53" s="49">
         <v>15</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="19">
         <v>41</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D53" s="86">
         <f t="shared" si="0"/>
         <v>45635</v>
       </c>
-      <c r="E53" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="59"/>
-    </row>
-    <row r="54" spans="2:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="68"/>
-      <c r="C54" s="19">
+      <c r="E53" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="52"/>
+    </row>
+    <row r="54" spans="2:11" ht="16.149999999999999" thickBot="1">
+      <c r="B54" s="50"/>
+      <c r="C54" s="18">
         <v>42</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="101">
         <f t="shared" si="0"/>
         <v>45637</v>
       </c>
-      <c r="E54" s="53"/>
-      <c r="F54" s="59"/>
-    </row>
-    <row r="55" spans="2:11" ht="15.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="88">
+      <c r="E54" s="51"/>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="2:11" ht="15.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B55" s="102">
         <f>D52+6</f>
         <v>45638</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-    </row>
-    <row r="56" spans="2:11" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="94"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="33"/>
-    </row>
-    <row r="57" spans="2:11" ht="14.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="91">
+      <c r="C55" s="103"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="25"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+    </row>
+    <row r="56" spans="2:11" ht="14.45" customHeight="1" thickBot="1">
+      <c r="B56" s="46"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="28"/>
+    </row>
+    <row r="57" spans="2:11" ht="14.85" customHeight="1" thickBot="1">
+      <c r="B57" s="105">
         <f>D4</f>
         <v>45642</v>
       </c>
-      <c r="C57" s="92"/>
-      <c r="D57" s="93">
+      <c r="C57" s="106"/>
+      <c r="D57" s="107">
         <f>D4</f>
         <v>45642</v>
       </c>
-      <c r="E57" s="32" t="str">
+      <c r="E57" s="27" t="str">
         <f>_xlfn.TEXTJOIN(,FALSE,"Final Exam  ", D5)</f>
         <v>Final Exam  10:05a-12:05p</v>
       </c>
-      <c r="F57" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-    </row>
-    <row r="58" spans="2:11" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B58" s="16"/>
+      <c r="F57" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+    </row>
+    <row r="58" spans="2:11" ht="16.149999999999999" thickTop="1">
+      <c r="B58" s="15"/>
+      <c r="D58" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="E44:E46"/>
@@ -2438,35 +2451,28 @@
     <mergeCell ref="F38:F40"/>
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="F41:F43"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B29:B31"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B46"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B50:B52"/>
     <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2479,12 +2485,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" style="4" customWidth="1"/>
@@ -2497,752 +2503,753 @@
     <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="85">
+        <v>45679</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="85"/>
+      <c r="E2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="85"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="C5" s="108"/>
+      <c r="D5" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="7">
-        <v>45679</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="7"/>
-      <c r="E2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="D5" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A7" s="109">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="74">
         <v>1</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="85">
         <f>C1</f>
         <v>45679</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="109"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.149999999999999" thickBot="1">
+      <c r="A8" s="74"/>
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="85">
         <f>C7+2</f>
         <v>45681</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A9" s="106">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="71">
         <v>2</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="30">
         <v>3</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="109">
         <f>C8+3</f>
         <v>45684</v>
       </c>
-      <c r="D9" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="38"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A10" s="107"/>
+      <c r="D9" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="72"/>
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="85">
         <f t="shared" ref="C10:C11" si="0">C7+7</f>
         <v>45686</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="39"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="108"/>
-      <c r="B11" s="40">
+        <v>60</v>
+      </c>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.149999999999999" thickBot="1">
+      <c r="A11" s="73"/>
+      <c r="B11" s="34">
         <v>5</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="110">
         <f t="shared" si="0"/>
         <v>45688</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A12" s="109">
+      <c r="D11" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="74">
         <v>3</v>
       </c>
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="85">
         <f>C9+7</f>
         <v>45691</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A13" s="109"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="74"/>
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="85">
         <f t="shared" ref="C13:C52" si="1">C10+7</f>
         <v>45693</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="109"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.149999999999999" thickBot="1">
+      <c r="A14" s="74"/>
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="85">
         <f t="shared" si="1"/>
         <v>45695</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A15" s="106">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="71">
         <v>4</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="30">
         <v>9</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="109">
         <f t="shared" si="1"/>
         <v>45698</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A16" s="107"/>
+      <c r="D15" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="72"/>
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="85">
         <f t="shared" si="1"/>
         <v>45700</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K16" s="39"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="108"/>
-      <c r="B17" s="40">
+        <v>63</v>
+      </c>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.149999999999999" thickBot="1">
+      <c r="A17" s="73"/>
+      <c r="B17" s="34">
         <v>11</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="110">
         <f t="shared" si="1"/>
         <v>45702</v>
       </c>
-      <c r="D17" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A18" s="109">
+      <c r="D17" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="74">
         <v>5</v>
       </c>
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="85">
         <f t="shared" si="1"/>
         <v>45705</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A19" s="109"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="74"/>
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="85">
         <f t="shared" si="1"/>
         <v>45707</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="109"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.149999999999999" thickBot="1">
+      <c r="A20" s="74"/>
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="85">
         <f t="shared" si="1"/>
         <v>45709</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="71">
+        <v>6</v>
+      </c>
+      <c r="B21" s="30">
+        <v>15</v>
+      </c>
+      <c r="C21" s="109">
+        <f t="shared" si="1"/>
+        <v>45712</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A21" s="106">
-        <v>6</v>
-      </c>
-      <c r="B21" s="35">
-        <v>15</v>
-      </c>
-      <c r="C21" s="36">
-        <f t="shared" si="1"/>
-        <v>45712</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A22" s="107"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="72"/>
       <c r="B22" s="4">
         <v>16</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="85">
         <f t="shared" si="1"/>
         <v>45714</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="39"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="108"/>
-      <c r="B23" s="40">
+      <c r="K22" s="33"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.149999999999999" thickBot="1">
+      <c r="A23" s="73"/>
+      <c r="B23" s="34">
         <v>17</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="110">
         <f t="shared" si="1"/>
         <v>45716</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="43"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A24" s="109">
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="74">
         <v>7</v>
       </c>
       <c r="B24" s="4">
         <v>18</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="85">
         <f t="shared" si="1"/>
         <v>45719</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A25" s="109"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="74"/>
       <c r="B25" s="4">
         <v>19</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="85">
         <f t="shared" si="1"/>
         <v>45721</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="109"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16.149999999999999" thickBot="1">
+      <c r="A26" s="74"/>
       <c r="B26" s="4">
         <v>20</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="85">
         <f t="shared" si="1"/>
         <v>45723</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="110"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A27" s="81"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="111">
         <f t="shared" si="1"/>
         <v>45726</v>
       </c>
-      <c r="D27" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="101"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="111"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47">
+      <c r="D27" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="76"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A28" s="82"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="112">
         <f t="shared" si="1"/>
         <v>45728</v>
       </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="103"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="112"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49">
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="78"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A29" s="83"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="113">
         <f t="shared" si="1"/>
         <v>45730</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="105"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A30" s="109">
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="80"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="74">
         <v>8</v>
       </c>
       <c r="B30" s="4">
         <v>21</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="85">
         <f t="shared" si="1"/>
         <v>45733</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A31" s="109"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="74"/>
       <c r="B31" s="4">
         <v>22</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="85">
         <f t="shared" si="1"/>
         <v>45735</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="109"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16.149999999999999" thickBot="1">
+      <c r="A32" s="74"/>
       <c r="B32" s="4">
         <v>23</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="85">
         <f t="shared" si="1"/>
         <v>45737</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A33" s="106">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="71">
         <v>9</v>
       </c>
-      <c r="B33" s="35">
+      <c r="B33" s="30">
         <v>24</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="109">
         <f t="shared" si="1"/>
         <v>45740</v>
       </c>
-      <c r="D33" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="38"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A34" s="107"/>
+      <c r="D33" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="72"/>
       <c r="B34" s="4">
         <v>25</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="85">
         <f t="shared" si="1"/>
         <v>45742</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K34" s="39"/>
-    </row>
-    <row r="35" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="108"/>
-      <c r="B35" s="40">
+        <v>74</v>
+      </c>
+      <c r="K34" s="33"/>
+    </row>
+    <row r="35" spans="1:11" ht="16.149999999999999" thickBot="1">
+      <c r="A35" s="73"/>
+      <c r="B35" s="34">
         <v>26</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35" s="110">
         <f t="shared" si="1"/>
         <v>45744</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="43"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A36" s="109">
+        <v>75</v>
+      </c>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="74">
         <v>10</v>
       </c>
       <c r="B36" s="4">
         <v>27</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="85">
         <f t="shared" si="1"/>
         <v>45747</v>
       </c>
-      <c r="D36" s="37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A37" s="109"/>
+      <c r="D36" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="74"/>
       <c r="B37" s="4">
         <v>28</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="85">
         <f t="shared" si="1"/>
         <v>45749</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="109"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.149999999999999" thickBot="1">
+      <c r="A38" s="74"/>
       <c r="B38" s="4">
         <v>29</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="85">
         <f t="shared" si="1"/>
         <v>45751</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A39" s="106">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="71">
         <v>11</v>
       </c>
-      <c r="B39" s="35">
+      <c r="B39" s="30">
         <v>30</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="109">
         <f t="shared" si="1"/>
         <v>45754</v>
       </c>
-      <c r="D39" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="38"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A40" s="107"/>
+      <c r="D39" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="32"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="72"/>
       <c r="B40" s="4">
         <v>31</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="85">
         <f t="shared" si="1"/>
         <v>45756</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K40" s="39"/>
-    </row>
-    <row r="41" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="108"/>
-      <c r="B41" s="40">
+        <v>77</v>
+      </c>
+      <c r="K40" s="33"/>
+    </row>
+    <row r="41" spans="1:11" ht="16.149999999999999" thickBot="1">
+      <c r="A41" s="73"/>
+      <c r="B41" s="34">
         <v>32</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41" s="110">
         <f t="shared" si="1"/>
         <v>45758</v>
       </c>
-      <c r="D41" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="43"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A42" s="109">
+      <c r="D41" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="36"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="74">
         <v>12</v>
       </c>
       <c r="B42" s="4">
         <v>33</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="85">
         <f t="shared" si="1"/>
         <v>45761</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A43" s="109"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="74"/>
       <c r="B43" s="4">
         <v>34</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="85">
         <f t="shared" si="1"/>
         <v>45763</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="109"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="16.149999999999999" thickBot="1">
+      <c r="A44" s="74"/>
       <c r="B44" s="4">
         <v>35</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="85">
         <f t="shared" si="1"/>
         <v>45765</v>
       </c>
-      <c r="D44" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A45" s="106">
+      <c r="D44" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="71">
         <v>13</v>
       </c>
-      <c r="B45" s="35">
+      <c r="B45" s="30">
         <v>36</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="109">
         <f t="shared" si="1"/>
         <v>45768</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="38"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A46" s="107"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="32"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="72"/>
       <c r="B46" s="4">
         <v>37</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="85">
         <f t="shared" si="1"/>
         <v>45770</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K46" s="39"/>
-    </row>
-    <row r="47" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="108"/>
-      <c r="B47" s="40">
+      <c r="K46" s="33"/>
+    </row>
+    <row r="47" spans="1:11" ht="16.149999999999999" thickBot="1">
+      <c r="A47" s="73"/>
+      <c r="B47" s="34">
         <v>38</v>
       </c>
-      <c r="C47" s="41">
+      <c r="C47" s="110">
         <f t="shared" si="1"/>
         <v>45772</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="43"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A48" s="109">
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="36"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="74">
         <v>14</v>
       </c>
       <c r="B48" s="4">
         <v>39</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="85">
         <f t="shared" si="1"/>
         <v>45775</v>
       </c>
@@ -3250,12 +3257,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A49" s="109"/>
+    <row r="49" spans="1:11">
+      <c r="A49" s="74"/>
       <c r="B49" s="4">
         <v>40</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="85">
         <f t="shared" si="1"/>
         <v>45777</v>
       </c>
@@ -3263,74 +3270,67 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="109"/>
+    <row r="50" spans="1:11" ht="16.149999999999999" thickBot="1">
+      <c r="A50" s="74"/>
       <c r="B50" s="4">
         <v>41</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="85">
         <f t="shared" si="1"/>
         <v>45779</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A51" s="106">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="71">
         <v>15</v>
       </c>
-      <c r="B51" s="35">
+      <c r="B51" s="30">
         <v>42</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="109">
         <f t="shared" si="1"/>
         <v>45782</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="38"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A52" s="107"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="32"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="72"/>
       <c r="B52" s="4">
         <v>43</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="85">
         <f t="shared" si="1"/>
         <v>45784</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K52" s="39"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="C54" s="7">
+      <c r="K52" s="33"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="C54" s="85">
         <v>44327</v>
       </c>
-      <c r="D54" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
+      <c r="D54" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
     <mergeCell ref="D27:K29"/>
     <mergeCell ref="A1:B3"/>
     <mergeCell ref="A51:A52"/>
@@ -3345,6 +3345,13 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3353,8 +3360,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100140A42B38915AC4EBAF791562DC92B4E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4940a5bbaa78008d3a998d5d5aca4007">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5bbddf2c-15bd-4cee-88ee-4bb358fdb5d4" xmlns:ns3="0ffa7682-a752-4ec2-9b00-944c9a00bbe9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4658b3216de9186052934391234322c9" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100140A42B38915AC4EBAF791562DC92B4E" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="45dcb3ee8ab16e94e9ce11f52f3ef1c8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5bbddf2c-15bd-4cee-88ee-4bb358fdb5d4" xmlns:ns3="0ffa7682-a752-4ec2-9b00-944c9a00bbe9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee4a90daa14cdc5725b57d2c9b788eb1" ns2:_="" ns3:_="">
     <xsd:import namespace="5bbddf2c-15bd-4cee-88ee-4bb358fdb5d4"/>
     <xsd:import namespace="0ffa7682-a752-4ec2-9b00-944c9a00bbe9"/>
     <xsd:element name="properties">
@@ -3374,6 +3381,7 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3436,6 +3444,11 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3554,15 +3567,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="0ffa7682-a752-4ec2-9b00-944c9a00bbe9" xsi:nil="true"/>
@@ -3573,14 +3577,23 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0188AB96-21B8-44D3-96B6-9022E3E5CDBC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61114A9B-9559-4F4B-B504-F593FC28D796}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{605098FD-93D3-4CD7-B2D3-5B16198C7F75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{292990A1-DB53-45B6-B715-CD9972EFC688}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{292990A1-DB53-45B6-B715-CD9972EFC688}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{605098FD-93D3-4CD7-B2D3-5B16198C7F75}"/>
 </file>